--- a/1F. Agenda en notulen van elke vergadering/Agenda's/Agenda week 5.xlsx
+++ b/1F. Agenda en notulen van elke vergadering/Agenda's/Agenda week 5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>wie</t>
   </si>
@@ -195,10 +195,10 @@
     <t>We zijn goed bezig.</t>
   </si>
   <si>
-    <t>We kunnen nu echt bijna gaan programeren</t>
-  </si>
-  <si>
     <t>Datum:6 Okt.</t>
+  </si>
+  <si>
+    <t>We kunnen nu echt gaan programeren</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +992,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="72"/>
@@ -1122,12 +1122,8 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="15">
         <v>6</v>
       </c>
@@ -1190,7 +1186,7 @@
       <c r="B18" s="32"/>
       <c r="C18" s="33">
         <f>SUM(C8:C17)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>7</v>
@@ -1279,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I26" s="49"/>
     </row>
@@ -1478,15 +1474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1535,6 +1522,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -1542,14 +1538,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1560,6 +1548,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
